--- a/bh3/557667620390479860_2021-08-11_19-15-11.xlsx
+++ b/bh3/557667620390479860_2021-08-11_19-15-11.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5139788899</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:44:01</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44422.94723379629</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>5139788899</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:47:12</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44422.86611111111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -691,10 +703,8 @@
           <t>5153062130</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-14 08:18:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44422.34607638889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -762,10 +772,8 @@
           <t>5131285541</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:46:14</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44421.99043981481</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -829,10 +837,8 @@
           <t>5131285541</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:55:11</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44421.95498842592</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -908,10 +914,8 @@
           <t>5139788899</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:43:20</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44421.94675925926</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -987,10 +991,8 @@
           <t>5148528788</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:41:07</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44421.94521990741</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1054,10 +1056,8 @@
           <t>5131285541</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:57:51</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44421.87350694444</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1121,10 +1121,8 @@
           <t>5148203630</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:18:54</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44421.80479166667</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1192,10 +1190,8 @@
           <t>5148203630</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:32</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44421.79828703704</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1271,10 +1267,8 @@
           <t>5148528788</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:55</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44421.79785879629</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1338,10 +1332,8 @@
           <t>5148528788</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:08:17</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44421.79741898148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1409,10 +1401,8 @@
           <t>5148203630</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:07:48</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44421.79708333333</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1480,10 +1470,8 @@
           <t>5148528788</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:03</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44421.78545138889</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1547,10 +1535,8 @@
           <t>5148203630</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:53</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44421.77908564815</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1626,10 +1612,8 @@
           <t>5148203630</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:18</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44421.77868055556</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1705,10 +1689,8 @@
           <t>5148203630</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:38</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44421.76849537037</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1776,10 +1758,8 @@
           <t>5148203630</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:18:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44421.76255787037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1855,10 +1835,8 @@
           <t>5139788899</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:17:02</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44421.7618287037</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1934,10 +1912,8 @@
           <t>5147476914</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:59:25</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44421.70792824074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2005,10 +1981,8 @@
           <t>5139788899</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:35:00</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44421.69097222222</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -2076,10 +2050,8 @@
           <t>5147195729</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:22:41</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44421.68241898148</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2147,10 +2119,8 @@
           <t>5145407846</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-13 12:24:45</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44421.5171875</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2226,10 +2196,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-13 06:01:42</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44421.25118055556</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -2297,10 +2265,8 @@
           <t>5142907168</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:22:12</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44421.09875</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2368,10 +2334,8 @@
           <t>5142907168</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:18:34</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44421.09622685185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2439,10 +2403,8 @@
           <t>5142907168</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:17:34</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44421.09553240741</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2510,10 +2472,8 @@
           <t>5142907168</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:24:16</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44421.05851851852</v>
       </c>
       <c r="I29" t="n">
         <v>7</v>
@@ -2577,10 +2537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:05:40</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44421.00393518519</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2640,10 +2598,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:20:32</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44420.93092592592</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2713,10 +2669,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:32:58</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44420.89789351852</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2784,10 +2738,8 @@
           <t>5140680443</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:52:34</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44420.86983796296</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2851,10 +2803,8 @@
           <t>5140671988</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:52:15</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44420.86961805556</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2926,10 +2876,8 @@
           <t>5140156615</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:53:32</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44420.82884259259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2997,10 +2945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:52:58</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44420.82844907408</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3068,10 +3014,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:52:46</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44420.82831018518</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3141,10 +3085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:48:26</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44420.82530092593</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3208,10 +3150,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:19:03</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44420.80489583333</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3279,10 +3219,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:16:04</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44420.80282407408</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3350,10 +3288,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:14:32</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44420.80175925926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3423,10 +3359,8 @@
           <t>5139788899</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:13:52</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44420.8012962963</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3496,10 +3430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:06:25</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44420.79612268518</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3563,10 +3495,8 @@
           <t>5139523737</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:45:11</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44420.78137731482</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3634,10 +3564,8 @@
           <t>5139521505</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:44:19</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44420.78077546296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3705,10 +3633,8 @@
           <t>5139508721</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:43:16</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44420.7800462963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3776,10 +3702,8 @@
           <t>5139501628</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:41:23</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44420.77873842593</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3847,10 +3771,8 @@
           <t>5139493158</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:41:08</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44420.77856481481</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
@@ -3918,10 +3840,8 @@
           <t>5139495334</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:40:33</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44420.77815972222</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -3989,10 +3909,8 @@
           <t>5139481748</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:39:18</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44420.77729166667</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4060,10 +3978,8 @@
           <t>5139462731</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:37:05</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44420.77575231482</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
@@ -4131,10 +4047,8 @@
           <t>5139329973</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:23:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44420.76597222222</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4203,10 +4117,8 @@
           <t>5139009433</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:46:58</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44420.74094907408</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4270,10 +4182,8 @@
           <t>5139015216</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:45:32</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44420.73995370371</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4337,10 +4247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:12</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44420.71402777778</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4416,10 +4324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-12 16:37:58</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44420.69303240741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4491,10 +4397,8 @@
           <t>5138431115</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-12 16:31:54</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44420.68881944445</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4558,10 +4462,8 @@
           <t>5137207942</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-12 13:36:37</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44420.5670949074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4629,10 +4531,8 @@
           <t>5136935656</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-12 13:02:39</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44420.54350694444</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4708,10 +4608,8 @@
           <t>5136876760</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-12 12:55:43</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44420.53869212963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4788,10 +4686,8 @@
           <t>5136773579</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-12 12:44:37</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44420.5309837963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4863,10 +4759,8 @@
           <t>5136643496</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-12 12:28:46</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44420.51997685185</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4931,10 +4825,8 @@
           <t>5136604550</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-12 12:24:30</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44420.51701388889</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5007,10 +4899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-12 11:55:09</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44420.49663194444</v>
       </c>
       <c r="I64" t="n">
         <v>22</v>
@@ -5086,10 +4976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-12 11:54:34</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44420.49622685185</v>
       </c>
       <c r="I65" t="n">
         <v>26</v>
@@ -5165,10 +5053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-12 11:37:59</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44420.48471064815</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5244,10 +5130,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-12 11:26:46</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44420.47692129629</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5315,10 +5199,8 @@
           <t>5134233520</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-12 11:11:38</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44420.46641203704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5394,10 +5276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-12 10:59:44</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44420.45814814815</v>
       </c>
       <c r="I69" t="n">
         <v>4</v>
@@ -5473,10 +5353,8 @@
           <t>5135886100</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-12 10:53:25</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44420.45376157408</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -5536,10 +5414,8 @@
           <t>5135506336</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-12 09:57:43</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44420.41508101852</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5607,10 +5483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-12 09:50:05</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44420.4097800926</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5689,10 +5563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-12 09:27:55</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44420.39438657407</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5756,10 +5628,8 @@
           <t>5135315109</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-12 09:26:03</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44420.39309027778</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5835,10 +5705,8 @@
           <t>5131285541</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-12 09:24:36</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44420.39208333333</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5914,10 +5782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-12 09:01:22</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44420.37594907408</v>
       </c>
       <c r="I76" t="n">
         <v>6</v>
@@ -5977,10 +5843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-12 08:27:52</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44420.35268518519</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6044,10 +5908,8 @@
           <t>5134883556</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-12 07:58:58</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44420.33261574074</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6119,10 +5981,8 @@
           <t>5134760289</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-12 07:19:10</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44420.30497685185</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6199,10 +6059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-12 06:38:47</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44420.27693287037</v>
       </c>
       <c r="I80" t="n">
         <v>7</v>
@@ -6266,10 +6124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-12 04:53:54</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44420.20409722222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6341,10 +6197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-12 04:44:03</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44420.19725694445</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6408,10 +6262,8 @@
           <t>5134521306</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-12 04:15:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44420.17721064815</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6479,10 +6331,8 @@
           <t>5134421499</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-12 03:14:00</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44420.13472222222</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6551,10 +6401,8 @@
           <t>5134391076</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-12 02:58:44</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44420.12412037037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6618,10 +6466,8 @@
           <t>5134247698</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-12 02:05:15</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44420.08697916667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6693,10 +6539,8 @@
           <t>5134233520</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-12 02:01:35</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44420.08443287037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6772,10 +6616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-12 02:00:43</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44420.08383101852</v>
       </c>
       <c r="I88" t="n">
         <v>6</v>
@@ -6843,10 +6685,8 @@
           <t>5131265989</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-12 01:46:06</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44420.07368055556</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6910,10 +6750,8 @@
           <t>5131055111</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-12 00:41:50</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44420.02905092593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6989,10 +6827,8 @@
           <t>5133832892</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-12 00:37:17</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44420.0258912037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7068,10 +6904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-12 00:09:23</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44420.00651620371</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7147,10 +6981,8 @@
           <t>5133309481</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-11 23:29:38</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44419.97891203704</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7218,10 +7050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-11 23:03:10</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44419.96053240741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7289,10 +7119,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-11 23:00:22</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44419.95858796296</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7360,10 +7188,8 @@
           <t>5132889977</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:44:36</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44419.94763888889</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7427,10 +7253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:40:13</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44419.94459490741</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7506,10 +7330,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:25:13</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44419.93417824074</v>
       </c>
       <c r="I98" t="n">
         <v>7</v>
@@ -7585,10 +7407,8 @@
           <t>5132702580</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:24:35</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44419.93373842593</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7648,10 +7468,8 @@
           <t>5132686168</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:22:43</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44419.93244212963</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7711,10 +7529,8 @@
           <t>5132654502</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:19:48</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44419.93041666667</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7782,10 +7598,8 @@
           <t>5132581502</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:12:11</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44419.92512731482</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7861,10 +7675,8 @@
           <t>5132577321</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:11:35</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44419.92471064815</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7932,10 +7744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:10:44</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44419.92412037037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8003,10 +7813,8 @@
           <t>5131080610</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:04:53</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44419.92005787037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8078,10 +7886,8 @@
           <t>5132346488</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:02:45</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44419.91857638889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8157,10 +7963,8 @@
           <t>5131030638</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:02:19</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44419.91827546297</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8220,10 +8024,8 @@
           <t>5132463061</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-11 22:00:24</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44419.91694444444</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8299,10 +8101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:58:14</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44419.91543981482</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8374,10 +8174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:58:01</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44419.91528935185</v>
       </c>
       <c r="I110" t="n">
         <v>7</v>
@@ -8449,10 +8247,8 @@
           <t>5132410297</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:53:52</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44419.91240740741</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8528,10 +8324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:53:22</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44419.91206018518</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8607,10 +8401,8 @@
           <t>5132384639</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:52:15</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44419.91128472222</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8686,10 +8478,8 @@
           <t>5132346488</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:47:42</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44419.908125</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8757,10 +8547,8 @@
           <t>5131285541</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:30:48</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44419.89638888889</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8828,10 +8616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:30:46</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44419.89636574074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8895,10 +8681,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:30:28</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44419.89615740741</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8974,10 +8758,8 @@
           <t>5131786755</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:29:59</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44419.89582175926</v>
       </c>
       <c r="I118" t="n">
         <v>6</v>
@@ -9054,10 +8836,8 @@
           <t>5132161902</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:27:41</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44419.89422453703</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9129,10 +8909,8 @@
           <t>5131093052</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:21:26</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44419.88988425926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9201,10 +8979,8 @@
           <t>5132096951</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:20:35</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44419.88929398148</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9272,10 +9048,8 @@
           <t>5132051916</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:15:18</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44419.885625</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9339,10 +9113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:15:02</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44419.88543981482</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9418,10 +9190,8 @@
           <t>5131993816</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:08:59</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44419.88123842593</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9485,10 +9255,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-11 21:06:07</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44419.87924768519</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9552,10 +9320,8 @@
           <t>5131905704</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:58:57</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44419.87427083333</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9623,10 +9389,8 @@
           <t>5131786755</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:56:51</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44419.8728125</v>
       </c>
       <c r="I127" t="n">
         <v>4</v>
@@ -9704,10 +9468,8 @@
           <t>5131860110</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:54:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44419.87094907407</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9775,10 +9537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:48:49</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44419.8672337963</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9842,10 +9602,8 @@
           <t>5131786755</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:47:35</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44419.86637731481</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9917,10 +9675,8 @@
           <t>5131798854</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:47:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44419.86627314815</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9996,10 +9752,8 @@
           <t>5131786755</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:46:10</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44419.86539351852</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10075,10 +9829,8 @@
           <t>5131265989</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:45:50</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44419.86516203704</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10150,10 +9902,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:44:10</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44419.86400462963</v>
       </c>
       <c r="I134" t="n">
         <v>10</v>
@@ -10225,10 +9975,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:38:07</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44419.85980324074</v>
       </c>
       <c r="I135" t="n">
         <v>11</v>
@@ -10304,10 +10052,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:37:30</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44419.859375</v>
       </c>
       <c r="I136" t="n">
         <v>30</v>
@@ -10383,10 +10129,8 @@
           <t>5131671358</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:32:39</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44419.85600694444</v>
       </c>
       <c r="I137" t="n">
         <v>4</v>
@@ -10446,10 +10190,8 @@
           <t>5131645259</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:30:02</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44419.85418981482</v>
       </c>
       <c r="I138" t="n">
         <v>8</v>
@@ -10517,10 +10259,8 @@
           <t>5131055111</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:28:49</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44419.85334490741</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10596,10 +10336,8 @@
           <t>5131628184</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:28:32</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44419.85314814815</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10675,10 +10413,8 @@
           <t>5131223267</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:27:34</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44419.85247685185</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10754,10 +10490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:27:08</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44419.85217592592</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10829,10 +10563,8 @@
           <t>5131317361</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:26:54</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44419.85201388889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10908,10 +10640,8 @@
           <t>5131223267</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:25:30</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44419.85104166667</v>
       </c>
       <c r="I144" t="n">
         <v>4</v>
@@ -10975,10 +10705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:18:36</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44419.84625</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11054,10 +10782,8 @@
           <t>5131540422</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:18:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44419.8459375</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11133,10 +10859,8 @@
           <t>5131535932</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:17:40</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44419.84560185186</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11212,10 +10936,8 @@
           <t>5131518584</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:16:23</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44419.84471064815</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11287,10 +11009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:14:16</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44419.84324074074</v>
       </c>
       <c r="I149" t="n">
         <v>5</v>
@@ -11358,10 +11078,8 @@
           <t>5131484188</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:13:04</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44419.84240740741</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11425,10 +11143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:12:20</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44419.84189814814</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11504,10 +11220,8 @@
           <t>5131472743</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:11:04</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44419.84101851852</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11571,10 +11285,8 @@
           <t>5131453552</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:09:40</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44419.8400462963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11642,10 +11354,8 @@
           <t>5131461704</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:09:11</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44419.83971064815</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11713,10 +11423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:08:48</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44419.83944444444</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11788,10 +11496,8 @@
           <t>5131439166</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:08:13</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44419.83903935185</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11860,10 +11566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:08:00</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44419.83888888889</v>
       </c>
       <c r="I157" t="n">
         <v>391</v>
@@ -11939,10 +11643,8 @@
           <t>5131429737</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:06:45</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44419.83802083333</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12018,10 +11720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:06:27</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44419.8378125</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12085,10 +11785,8 @@
           <t>5131422915</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:06:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44419.83752314815</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12156,10 +11854,8 @@
           <t>5131397020</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:02:42</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44419.83520833333</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12223,10 +11919,8 @@
           <t>5131372662</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-11 20:00:22</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44419.83358796296</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12302,10 +11996,8 @@
           <t>5131265989</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:59:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44419.83270833334</v>
       </c>
       <c r="I163" t="n">
         <v>4</v>
@@ -12381,10 +12073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:56:51</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44419.83114583333</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12472,10 +12162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:55:15</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44419.83003472222</v>
       </c>
       <c r="I165" t="n">
         <v>4</v>
@@ -12543,10 +12231,8 @@
           <t>5131313993</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:54:16</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44419.82935185185</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12622,10 +12308,8 @@
           <t>5131317361</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:54:10</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44419.82928240741</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12706,10 +12390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:53:43</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44419.82896990741</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12777,10 +12459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:53:19</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44419.82869212963</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12856,10 +12536,8 @@
           <t>5131298963</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:52:31</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44419.82813657408</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12919,10 +12597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:51:21</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44419.82732638889</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12990,10 +12666,8 @@
           <t>5131285541</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:50:59</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44419.82707175926</v>
       </c>
       <c r="I172" t="n">
         <v>5</v>
@@ -13069,10 +12743,8 @@
           <t>5131285541</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:50:32</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44419.82675925926</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13140,10 +12812,8 @@
           <t>5131275416</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:48:59</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44419.82568287037</v>
       </c>
       <c r="I174" t="n">
         <v>7</v>
@@ -13220,10 +12890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:48:23</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44419.8252662037</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13295,10 +12963,8 @@
           <t>5131265989</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:47:56</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44419.8249537037</v>
       </c>
       <c r="I176" t="n">
         <v>26</v>
@@ -13374,10 +13040,8 @@
           <t>5131257120</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:47:52</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44419.8249074074</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13449,10 +13113,8 @@
           <t>5131228010</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:44:54</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44419.82284722223</v>
       </c>
       <c r="I178" t="n">
         <v>4</v>
@@ -13524,10 +13186,8 @@
           <t>5131235564</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:44:30</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44419.82256944444</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -13603,10 +13263,8 @@
           <t>5131223267</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:43:49</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44419.82209490741</v>
       </c>
       <c r="I180" t="n">
         <v>7</v>
@@ -13678,10 +13336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:43:06</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44419.82159722222</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13757,10 +13413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:42:00</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44419.82083333333</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13832,10 +13486,8 @@
           <t>5131198522</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:41:51</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44419.82072916667</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13904,10 +13556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:41:42</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44419.820625</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13984,10 +13634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:41:31</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44419.82049768518</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14055,10 +13703,8 @@
           <t>5131191002</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:40:03</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44419.81947916667</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14126,10 +13772,8 @@
           <t>5131036197</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:39:44</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44419.81925925926</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14205,10 +13849,8 @@
           <t>5131116582</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:39:27</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44419.8190625</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14284,10 +13926,8 @@
           <t>5131177911</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:39:05</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44419.81880787037</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14355,10 +13995,8 @@
           <t>5131180426</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:39:04</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44419.8187962963</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14426,10 +14064,8 @@
           <t>5131177402</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:38:56</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44419.81870370371</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14497,10 +14133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:38:36</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44419.81847222222</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14576,10 +14210,8 @@
           <t>5131163958</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:37:52</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44419.81796296296</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14651,10 +14283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:37:44</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44419.81787037037</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14722,10 +14352,8 @@
           <t>5131135576</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:37:14</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44419.81752314815</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14801,10 +14429,8 @@
           <t>5131030638</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:36:26</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44419.81696759259</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14880,10 +14506,8 @@
           <t>5131080610</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:36:09</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44419.81677083333</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14959,10 +14583,8 @@
           <t>5131080610</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:35:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44419.81652777778</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15038,10 +14660,8 @@
           <t>5131080610</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:35:04</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44419.81601851852</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15109,10 +14729,8 @@
           <t>5131121007</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:34:54</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44419.81590277778</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15188,10 +14806,8 @@
           <t>5131055111</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:34:41</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44419.81575231482</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15255,10 +14871,8 @@
           <t>5131137419</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:34:31</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44419.81563657407</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15322,10 +14936,8 @@
           <t>5131137179</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:34:27</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44419.81559027778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15401,10 +15013,8 @@
           <t>5131141133</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:34:26</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44419.8155787037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15472,10 +15082,8 @@
           <t>5131135576</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:33:53</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44419.81519675926</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15539,10 +15147,8 @@
           <t>5131126318</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:32:49</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44419.81445601852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15618,10 +15224,8 @@
           <t>5131126243</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:32:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44419.81444444445</v>
       </c>
       <c r="I207" t="n">
         <v>4</v>
@@ -15693,10 +15297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:32:41</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44419.81436342592</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15764,10 +15366,8 @@
           <t>5131116582</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:32:25</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44419.81417824074</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15843,10 +15443,8 @@
           <t>5131114967</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:32:22</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44419.81414351852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15906,10 +15504,8 @@
           <t>5131121007</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:32:18</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44419.81409722222</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15973,10 +15569,8 @@
           <t>5131102899</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:31:12</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44419.81333333333</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16044,10 +15638,8 @@
           <t>5131111245</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:31:07</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44419.81327546296</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16123,10 +15715,8 @@
           <t>5131094322</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:30:11</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44419.81262731482</v>
       </c>
       <c r="I214" t="n">
         <v>7</v>
@@ -16198,10 +15788,8 @@
           <t>5131089284</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:29:56</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44419.8124537037</v>
       </c>
       <c r="I215" t="n">
         <v>15</v>
@@ -16273,10 +15861,8 @@
           <t>5131093052</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:29:46</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44419.81233796296</v>
       </c>
       <c r="I216" t="n">
         <v>8</v>
@@ -16348,10 +15934,8 @@
           <t>5131095934</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:29:23</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44419.81207175926</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16419,10 +16003,8 @@
           <t>5131091610</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:29:18</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44419.81201388889</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16494,10 +16076,8 @@
           <t>5131087191</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:29:10</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44419.8119212963</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16573,10 +16153,8 @@
           <t>5131083213</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:28:31</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44419.81146990741</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16648,10 +16226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:28:16</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44419.8112962963</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16723,10 +16299,8 @@
           <t>5131077436</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:28:00</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44419.81111111111</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16798,10 +16372,8 @@
           <t>5131073779</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:27:59</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44419.81109953704</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16873,10 +16445,8 @@
           <t>5131073366</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:27:50</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44419.81099537037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16948,10 +16518,8 @@
           <t>5131080610</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:27:40</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44419.81087962963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17029,10 +16597,8 @@
           <t>5131048607</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:27:37</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44419.81084490741</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17096,10 +16662,8 @@
           <t>5131072229</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:27:27</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44419.81072916667</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17175,10 +16739,8 @@
           <t>5131072017</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:27:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44419.8106712963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17254,10 +16816,8 @@
           <t>5131068580</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:27:02</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44419.81043981481</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17329,10 +16889,8 @@
           <t>5131055111</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:26:56</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44419.81037037037</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17396,10 +16954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:26:41</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44419.81019675926</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17471,10 +17027,8 @@
           <t>5131055111</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:26:33</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44419.81010416667</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17538,10 +17092,8 @@
           <t>5131055111</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:26:27</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44419.81003472222</v>
       </c>
       <c r="I233" t="n">
         <v>37</v>
@@ -17613,10 +17165,8 @@
           <t>5131060874</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:26:00</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44419.80972222222</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17688,10 +17238,8 @@
           <t>5131057712</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:25:51</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44419.80961805556</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17763,10 +17311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:25:51</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44419.80961805556</v>
       </c>
       <c r="I236" t="n">
         <v>5</v>
@@ -17842,10 +17388,8 @@
           <t>5131054317</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:25:37</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44419.80945601852</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17913,10 +17457,8 @@
           <t>5131048607</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:25:18</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44419.80923611111</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -17992,10 +17534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:25:07</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44419.8091087963</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18063,10 +17603,8 @@
           <t>5131055299</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:25:01</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44419.80903935185</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18142,10 +17680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:57</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44419.80899305556</v>
       </c>
       <c r="I241" t="n">
         <v>4</v>
@@ -18209,10 +17745,8 @@
           <t>5131055111</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:57</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44419.80899305556</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18288,10 +17822,8 @@
           <t>5131044123</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:38</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44419.80877314815</v>
       </c>
       <c r="I243" t="n">
         <v>6</v>
@@ -18359,10 +17891,8 @@
           <t>5131043943</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:34</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44419.80872685185</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18438,10 +17968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:34</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44419.80872685185</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18517,10 +18045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:23</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44419.80859953703</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18596,10 +18122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:06</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44419.80840277778</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -18671,10 +18195,8 @@
           <t>5131042537</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:06</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44419.80840277778</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18738,10 +18260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:24:01</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44419.8083449074</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18817,10 +18337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:23:52</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44419.80824074074</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18884,10 +18402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:23:47</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44419.80818287037</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18959,10 +18475,8 @@
           <t>5131033229</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:23:38</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44419.8080787037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19038,10 +18552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:23:09</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44419.80774305556</v>
       </c>
       <c r="I253" t="n">
         <v>444</v>
@@ -19117,10 +18629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:23:09</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44419.80774305556</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19196,10 +18706,8 @@
           <t>5131036430</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:23:05</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44419.80769675926</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19275,10 +18783,8 @@
           <t>5131036197</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:23:01</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44419.80765046296</v>
       </c>
       <c r="I256" t="n">
         <v>4</v>
@@ -19354,10 +18860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:58</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44419.80761574074</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19429,10 +18933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:55</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44419.80758101852</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19508,10 +19010,8 @@
           <t>5131028900</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:49</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44419.80751157407</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19587,10 +19087,8 @@
           <t>5131030638</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:48</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44419.8075</v>
       </c>
       <c r="I260" t="n">
         <v>52</v>
@@ -19667,10 +19165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:47</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44419.80748842593</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19738,10 +19234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:43</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44419.80744212963</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19805,10 +19299,8 @@
           <t>5131028585</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:42</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44419.80743055556</v>
       </c>
       <c r="I263" t="n">
         <v>10</v>
@@ -19880,10 +19372,8 @@
           <t>5131028587</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:42</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44419.80743055556</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19955,10 +19445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:40</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44419.80740740741</v>
       </c>
       <c r="I265" t="n">
         <v>5</v>
@@ -20022,10 +19510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:39</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44419.80739583333</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20097,10 +19583,8 @@
           <t>5131024997</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:38</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44419.80738425926</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -20172,10 +19656,8 @@
           <t>5131024925</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:36</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44419.80736111111</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20253,10 +19735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:30</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44419.80729166666</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20331,10 +19811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:29</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44419.80728009259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20402,10 +19880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:24</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44419.80722222223</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -20469,10 +19945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:22:18</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44419.80715277778</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20548,10 +20022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:21:59</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44419.80693287037</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20621,10 +20093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:21:42</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44419.80673611111</v>
       </c>
       <c r="I274" t="n">
         <v>246</v>
@@ -20700,10 +20170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:21:34</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44419.80664351852</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20779,10 +20247,8 @@
           <t>5130970332</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:20:28</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44419.80587962963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20850,10 +20316,8 @@
           <t>5131002729</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:20:15</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44419.80572916667</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20921,10 +20385,8 @@
           <t>5131007187</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:20:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44419.80567129629</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -21000,10 +20462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:20:10</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44419.80567129629</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -21067,10 +20527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:20:04</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44419.80560185185</v>
       </c>
       <c r="I280" t="n">
         <v>5</v>
@@ -21143,10 +20601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:56</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44419.80550925926</v>
       </c>
       <c r="I281" t="n">
         <v>7</v>
@@ -21214,10 +20670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:52</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44419.80546296296</v>
       </c>
       <c r="I282" t="n">
         <v>4</v>
@@ -21287,10 +20741,8 @@
           <t>5131006196</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:52</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44419.80546296296</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21354,10 +20806,8 @@
           <t>5131005931</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:48</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44419.80541666667</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21430,10 +20880,8 @@
           <t>5130994935</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:39</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44419.8053125</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21493,10 +20941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:37</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44419.80528935185</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21564,10 +21010,8 @@
           <t>5130970332</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:34</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44419.80525462963</v>
       </c>
       <c r="I287" t="n">
         <v>10</v>
@@ -21635,10 +21079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:32</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44419.80523148148</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21708,10 +21150,8 @@
           <t>5131005014</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:32</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44419.80523148148</v>
       </c>
       <c r="I289" t="n">
         <v>4</v>
@@ -21787,10 +21227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:15</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44419.80503472222</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21862,10 +21300,8 @@
           <t>5130989495</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:11</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44419.80498842592</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21937,10 +21373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:09</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44419.80496527778</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22012,10 +21446,8 @@
           <t>5130989212</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:06</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44419.80493055555</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22083,10 +21515,8 @@
           <t>5130970332</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:19:05</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44419.80491898148</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22154,10 +21584,8 @@
           <t>5130988652</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:18:55</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44419.80480324074</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22225,10 +21653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:18:50</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44419.80474537037</v>
       </c>
       <c r="I296" t="n">
         <v>4</v>
@@ -22300,10 +21726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:18:44</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44419.80467592592</v>
       </c>
       <c r="I297" t="n">
         <v>50</v>
@@ -22367,10 +21791,8 @@
           <t>5130987595</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:18:34</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44419.80456018518</v>
       </c>
       <c r="I298" t="n">
         <v>16</v>
@@ -22438,10 +21860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:18:23</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44419.80443287037</v>
       </c>
       <c r="I299" t="n">
         <v>2</v>
@@ -22517,10 +21937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:18:22</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44419.8044212963</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22588,10 +22006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:18:11</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44419.80429398148</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22659,10 +22075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:17:43</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44419.80396990741</v>
       </c>
       <c r="I302" t="n">
         <v>33</v>
@@ -22732,10 +22146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:17:30</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44419.80381944445</v>
       </c>
       <c r="I303" t="n">
         <v>227</v>
@@ -22799,10 +22211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:17:15</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44419.80364583333</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22879,10 +22289,8 @@
           <t>5130973640</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:17:14</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44419.80363425926</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22950,10 +22358,8 @@
           <t>5130977948</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:17:08</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44419.80356481481</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23021,10 +22427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:55</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44419.80341435185</v>
       </c>
       <c r="I307" t="n">
         <v>26</v>
@@ -23100,10 +22504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:55</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44419.80341435185</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23175,10 +22577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:37</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44419.80320601852</v>
       </c>
       <c r="I309" t="n">
         <v>102</v>
@@ -23254,10 +22654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:34</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44419.8031712963</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23329,10 +22727,8 @@
           <t>5130976220</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:32</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44419.80314814814</v>
       </c>
       <c r="I311" t="n">
         <v>16</v>
@@ -23400,10 +22796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:31</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44419.80313657408</v>
       </c>
       <c r="I312" t="n">
         <v>1131</v>
@@ -23475,10 +22869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:24</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44419.80305555555</v>
       </c>
       <c r="I313" t="n">
         <v>180</v>
@@ -23559,10 +22951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:19</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44419.80299768518</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23630,10 +23020,8 @@
           <t>5130970332</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:09</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44419.80288194444</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23701,10 +23089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:16:02</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44419.80280092593</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23781,10 +23167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:57</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44419.80274305555</v>
       </c>
       <c r="I317" t="n">
         <v>5</v>
@@ -23856,10 +23240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:56</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44419.80273148148</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -23935,10 +23317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:56</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44419.80273148148</v>
       </c>
       <c r="I319" t="n">
         <v>44</v>
@@ -24014,10 +23394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:51</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44419.80267361111</v>
       </c>
       <c r="I320" t="n">
         <v>37</v>
@@ -24093,10 +23471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:48</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44419.80263888889</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -24172,10 +23548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:47</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44419.80262731481</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24250,10 +23624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:44</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44419.80259259259</v>
       </c>
       <c r="I323" t="n">
         <v>694</v>
@@ -24321,10 +23693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:39</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44419.80253472222</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24400,10 +23770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-11 19:15:31</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44419.80244212963</v>
       </c>
       <c r="I325" t="n">
         <v>4</v>
